--- a/TestCase_DemoWebShop.xlsx
+++ b/TestCase_DemoWebShop.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personals\TestingProjects\TricentisDemoWebShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCF33C1-50E5-4E20-B8D2-996552F71440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B63384E-3B40-4C85-BB4B-6A7B13AD098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Registration" sheetId="4" r:id="rId2"/>
     <sheet name="Login" sheetId="5" r:id="rId3"/>
     <sheet name="ForgetPassword" sheetId="6" r:id="rId4"/>
-    <sheet name="Template" sheetId="1" r:id="rId5"/>
+    <sheet name="MyProfileGUI" sheetId="7" r:id="rId5"/>
+    <sheet name="MyProfielLandingPage" sheetId="8" r:id="rId6"/>
+    <sheet name="Addresses" sheetId="9" r:id="rId7"/>
+    <sheet name="ChangePassword" sheetId="10" r:id="rId8"/>
+    <sheet name="LogOut" sheetId="11" r:id="rId9"/>
+    <sheet name="LogOut (2)" sheetId="12" r:id="rId10"/>
+    <sheet name="Template" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="296">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -114,521 +120,832 @@
 Validate the my profile Page-Landing page</t>
   </si>
   <si>
+    <t>TestScenario_DemoWebShop.docx</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Creating the Testcases</t>
+  </si>
+  <si>
+    <t>TCR01</t>
+  </si>
+  <si>
+    <t>TCR02</t>
+  </si>
+  <si>
+    <t>TCR03</t>
+  </si>
+  <si>
+    <t>TCR04</t>
+  </si>
+  <si>
+    <t>TCR05</t>
+  </si>
+  <si>
+    <t>TCR06</t>
+  </si>
+  <si>
+    <t>TCR07</t>
+  </si>
+  <si>
+    <t>TCR08</t>
+  </si>
+  <si>
+    <t>TCR09</t>
+  </si>
+  <si>
+    <t>TCR10</t>
+  </si>
+  <si>
+    <t>TCR11</t>
+  </si>
+  <si>
+    <t>TCR12</t>
+  </si>
+  <si>
+    <t>Validate Registration Page Functionality by entering all Values (Valid)</t>
+  </si>
+  <si>
+    <t>Validate Registration Page Functionality by entering all Values (inValid)</t>
+  </si>
+  <si>
+    <t>Validate the UI/ Usabilty and Alignment of the page</t>
+  </si>
+  <si>
+    <t>Validate the Tab Menus , footer menus &amp; Side Menus Navigation</t>
+  </si>
+  <si>
+    <t>Validate the password Validations (check with Blank Space )</t>
+  </si>
+  <si>
+    <t>Validate the password Validations (check Confirm password )</t>
+  </si>
+  <si>
+    <t>Validate the Gender Field</t>
+  </si>
+  <si>
+    <t>Validate registering with existing  EmailID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>validate the spelling mistakes on the page</t>
+  </si>
+  <si>
+    <t>Validate Order of tab (KeyBoard Actions)</t>
+  </si>
+  <si>
+    <t>Validate with Invalid EmailID</t>
+  </si>
+  <si>
+    <t>Validate the Navigation of Registeration from other pages and Links</t>
+  </si>
+  <si>
+    <t>Validate the password Validations (check with Blank confirm password )</t>
+  </si>
+  <si>
+    <t>TCR13</t>
+  </si>
+  <si>
+    <t>TCR14</t>
+  </si>
+  <si>
+    <t>TCR15</t>
+  </si>
+  <si>
+    <t>TCR16</t>
+  </si>
+  <si>
+    <t>TCR17</t>
+  </si>
+  <si>
+    <t>TCR18</t>
+  </si>
+  <si>
+    <t>TCR19</t>
+  </si>
+  <si>
+    <t>Validate Registration Page Functionality by entering only Mandatory Values</t>
+  </si>
+  <si>
+    <t>Validate Registration Page Functionality by entering only blank Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Email Sent after Sucessful Registration </t>
+  </si>
+  <si>
+    <t>Validate with valid EmailID</t>
+  </si>
+  <si>
+    <t>Verify the Error Messages for Grammatical and Spelling Mistakes)</t>
+  </si>
+  <si>
+    <t>Validate the BreadCrumbs for Register Page</t>
+  </si>
+  <si>
+    <t>Validate the PageName for Register Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for the loading time of Register Page </t>
+  </si>
+  <si>
+    <t>TCR20</t>
+  </si>
+  <si>
+    <t>TCR21</t>
+  </si>
+  <si>
+    <t>TCR22</t>
+  </si>
+  <si>
+    <t>TCL01</t>
+  </si>
+  <si>
+    <t>TCL02</t>
+  </si>
+  <si>
+    <t>TCL03</t>
+  </si>
+  <si>
+    <t>TCL04</t>
+  </si>
+  <si>
+    <t>TCL05</t>
+  </si>
+  <si>
+    <t>TCL06</t>
+  </si>
+  <si>
+    <t>TCL07</t>
+  </si>
+  <si>
+    <t>TCL08</t>
+  </si>
+  <si>
+    <t>TCL09</t>
+  </si>
+  <si>
+    <t>TCL10</t>
+  </si>
+  <si>
+    <t>TCL11</t>
+  </si>
+  <si>
+    <t>TCL12</t>
+  </si>
+  <si>
+    <t>TCL13</t>
+  </si>
+  <si>
+    <t>TCL14</t>
+  </si>
+  <si>
+    <t>TCL15</t>
+  </si>
+  <si>
+    <t>TCL16</t>
+  </si>
+  <si>
+    <t>TCL17</t>
+  </si>
+  <si>
+    <t>TCL18</t>
+  </si>
+  <si>
+    <t>TCL19</t>
+  </si>
+  <si>
+    <t>TCL20</t>
+  </si>
+  <si>
+    <t>Validate Login Using Valid UserName and Password</t>
+  </si>
+  <si>
+    <t>Validate Login Using InValid UserName and Password</t>
+  </si>
+  <si>
+    <t>Validate Login Using Blank UserName and Password</t>
+  </si>
+  <si>
+    <t>Validate Password is hided using asteriks</t>
+  </si>
+  <si>
+    <t>Validate the working of Remember Me Functionality</t>
+  </si>
+  <si>
+    <t>Validate the Navigation of Login Page from other pages and Links</t>
+  </si>
+  <si>
+    <t>Validate the BreadCrumbs for Login Page</t>
+  </si>
+  <si>
+    <t>Validate the PageName for Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for the loading time of Login Page </t>
+  </si>
+  <si>
+    <t>Check for the Login time(once Login Button is Submitted)</t>
+  </si>
+  <si>
+    <t>Check for the Submit time(once registeration Button is submitted)</t>
+  </si>
+  <si>
+    <t>Validate Login Using InValid UserName and valid Password</t>
+  </si>
+  <si>
+    <t>Validate Login Using valid UserName and invalid Password</t>
+  </si>
+  <si>
+    <t>Validate username for wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario ID </t>
+  </si>
+  <si>
+    <t>Reference /Usecase / Functionality</t>
+  </si>
+  <si>
+    <t>Scenario Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Number of TestCases</t>
+  </si>
+  <si>
+    <t>TSDW01</t>
+  </si>
+  <si>
+    <t>1. Registration</t>
+  </si>
+  <si>
+    <t>Validate the Registration functionality</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TSDW02</t>
+  </si>
+  <si>
+    <t>2. Login</t>
+  </si>
+  <si>
+    <t>Validate the Login Functionality</t>
+  </si>
+  <si>
+    <t>TSDW03</t>
+  </si>
+  <si>
+    <t>Validate the working of Forget Password</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>TSDW04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. My Account </t>
+  </si>
+  <si>
+    <t>Validate the my profile Page - GUI</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>TSDW05</t>
+  </si>
+  <si>
+    <t>Validate the my profile Page-Landing page</t>
+  </si>
+  <si>
+    <t>TSDW06</t>
+  </si>
+  <si>
+    <t>TSDW07</t>
+  </si>
+  <si>
+    <t>Validate my profile -&gt;  Addresses Functionality</t>
+  </si>
+  <si>
+    <t>TSDW08</t>
+  </si>
+  <si>
+    <t>TSDW09</t>
+  </si>
+  <si>
+    <t>TSDW10</t>
+  </si>
+  <si>
+    <t>TSDW11</t>
+  </si>
+  <si>
+    <t>Validate my profile -&gt;  Change Password</t>
+  </si>
+  <si>
+    <t>TSDW12</t>
+  </si>
+  <si>
+    <t>Validate my profile -&gt;  Logout</t>
+  </si>
+  <si>
+    <t>TSDW13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Search Functionality </t>
+  </si>
+  <si>
+    <t>Validate the Search Functionality</t>
+  </si>
+  <si>
+    <t>TSDW14</t>
+  </si>
+  <si>
+    <t>5. Shopping Cart</t>
+  </si>
+  <si>
+    <t>Validate the shopping Cart Functionality</t>
+  </si>
+  <si>
+    <t>6. Wishlist</t>
+  </si>
+  <si>
+    <t>Validate the add to wishlist Functionality</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>7. Usability Landing Page</t>
+  </si>
+  <si>
+    <t>Valdiate the HomePage</t>
+  </si>
+  <si>
+    <t>Validate the GUI</t>
+  </si>
+  <si>
+    <t>Validate the Navigation and Links</t>
+  </si>
+  <si>
+    <t>TCFP01</t>
+  </si>
+  <si>
+    <t>TCFP02</t>
+  </si>
+  <si>
+    <t>TCFP03</t>
+  </si>
+  <si>
+    <t>TCFP04</t>
+  </si>
+  <si>
+    <t>TCFP05</t>
+  </si>
+  <si>
+    <t>TCFP06</t>
+  </si>
+  <si>
+    <t>TCFP07</t>
+  </si>
+  <si>
+    <t>TCFP08</t>
+  </si>
+  <si>
+    <t>TCFP09</t>
+  </si>
+  <si>
+    <t>TCFP10</t>
+  </si>
+  <si>
+    <t>TCFP11</t>
+  </si>
+  <si>
+    <t>TCFP12</t>
+  </si>
+  <si>
+    <t>TCFP13</t>
+  </si>
+  <si>
+    <t>TCFP14</t>
+  </si>
+  <si>
+    <t>Validate the BreadCrumbs for ForgetPassword Page</t>
+  </si>
+  <si>
+    <t>Validate the PageName for ForgetPassword Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for the loading time of ForgetPassword Page </t>
+  </si>
+  <si>
+    <t>Check for the ForgetPassword time(once Restore Button is Submitted)</t>
+  </si>
+  <si>
+    <t>Validate the Navigation of ForgetPassword Page from other pages and Links</t>
+  </si>
+  <si>
+    <t>Vaidate with valid emailID</t>
+  </si>
+  <si>
+    <t>Validate with invalid emailID</t>
+  </si>
+  <si>
+    <t>Validate with blank space</t>
+  </si>
+  <si>
+    <t>Validate  whether the forget password email is received at the email</t>
+  </si>
+  <si>
+    <t>TCMP01</t>
+  </si>
+  <si>
+    <t>TCMP02</t>
+  </si>
+  <si>
+    <t>TCMP03</t>
+  </si>
+  <si>
+    <t>TCMP04</t>
+  </si>
+  <si>
+    <t>TCMP05</t>
+  </si>
+  <si>
+    <t>TCMP06</t>
+  </si>
+  <si>
+    <t>TCMP07</t>
+  </si>
+  <si>
+    <t>TCMP08</t>
+  </si>
+  <si>
+    <t>TCMP09</t>
+  </si>
+  <si>
+    <t>TCMP10</t>
+  </si>
+  <si>
+    <t>TCMP11</t>
+  </si>
+  <si>
+    <t>TCMP12</t>
+  </si>
+  <si>
+    <t>TCMP13</t>
+  </si>
+  <si>
+    <t>TCMP14</t>
+  </si>
+  <si>
+    <t>Validate the BreadCrumbs for MyProfile Page</t>
+  </si>
+  <si>
+    <t>Validate the PageName for MyProfile Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for the loading time of MyProfile Page </t>
+  </si>
+  <si>
+    <t>Validate the Navigation of MyProfile Page from other pages and Links</t>
+  </si>
+  <si>
+    <t>Validate with Valid Inputs</t>
+  </si>
+  <si>
+    <t>Validate with invalid Inputs</t>
+  </si>
+  <si>
+    <t>Validate with Blank Spaces</t>
+  </si>
+  <si>
+    <t>Validate the Gender Option</t>
+  </si>
+  <si>
+    <t>TCMPL01</t>
+  </si>
+  <si>
+    <t>TCMPL02</t>
+  </si>
+  <si>
+    <t>TCMPL03</t>
+  </si>
+  <si>
+    <t>TCMPL04</t>
+  </si>
+  <si>
+    <t>TCMPL05</t>
+  </si>
+  <si>
+    <t>TCMPL06</t>
+  </si>
+  <si>
+    <t>TCMPL07</t>
+  </si>
+  <si>
+    <t>TCMPL08</t>
+  </si>
+  <si>
+    <t>TCMPL09</t>
+  </si>
+  <si>
+    <t>TCMPL10</t>
+  </si>
+  <si>
+    <t>TCMPL11</t>
+  </si>
+  <si>
+    <t>Validate the Newsletter functionality</t>
+  </si>
+  <si>
+    <t>Validate the Recently Addes Products list</t>
+  </si>
+  <si>
     <t>TSDW06
-Validate my profile -&gt;  Customer Info</t>
+Validate my profile -&gt;  Addresses Functionality</t>
+  </si>
+  <si>
+    <t>TCAD01</t>
+  </si>
+  <si>
+    <t>TCAD02</t>
+  </si>
+  <si>
+    <t>TCAD03</t>
+  </si>
+  <si>
+    <t>TCAD04</t>
+  </si>
+  <si>
+    <t>TCAD05</t>
+  </si>
+  <si>
+    <t>TCAD06</t>
+  </si>
+  <si>
+    <t>TCAD07</t>
+  </si>
+  <si>
+    <t>TCAD08</t>
+  </si>
+  <si>
+    <t>TCAD09</t>
+  </si>
+  <si>
+    <t>TCAD10</t>
+  </si>
+  <si>
+    <t>TCAD11</t>
+  </si>
+  <si>
+    <t>Validate Address Creation Using Valid Inputs</t>
+  </si>
+  <si>
+    <t>Validate Address Creation Using InValid Inputs</t>
+  </si>
+  <si>
+    <t>Validate Address Creation Using Blank Inputs</t>
+  </si>
+  <si>
+    <t>Validate Country and State Drop Boxes</t>
+  </si>
+  <si>
+    <t>Validate PhoneNumber field with Invalid data</t>
+  </si>
+  <si>
+    <t>Validate PhoneNumber field with valid data</t>
+  </si>
+  <si>
+    <t>Validate the display of the Already Created Addresses</t>
+  </si>
+  <si>
+    <t>Validate the editing of Existing Address</t>
+  </si>
+  <si>
+    <t>TCAD12</t>
+  </si>
+  <si>
+    <t>TCAD13</t>
+  </si>
+  <si>
+    <t>TCAD14</t>
+  </si>
+  <si>
+    <t>TCAD15</t>
+  </si>
+  <si>
+    <t>TCAD16</t>
+  </si>
+  <si>
+    <t>TCAD17</t>
   </si>
   <si>
     <t>TSDW07
-Validate my profile -&gt;  Addresses Functionality</t>
+Validate my profile -&gt;  Change Password</t>
   </si>
   <si>
     <t>TSDW08
-Validate my profile -&gt;  Downloadable Products</t>
+Validate my profile -&gt;  Logout</t>
   </si>
   <si>
     <t>TSDW09
-Validate my profile -&gt;  Back in Stock Subscription</t>
+Validate the Search Functionality</t>
   </si>
   <si>
     <t>TSDW10
-Validate my profile -&gt;  Reward Points</t>
+Validate the shopping Cart Functionality</t>
   </si>
   <si>
     <t>TSDW11
-Validate my profile -&gt;  Change Password</t>
+Validate the add to wishlist Functionality</t>
   </si>
   <si>
     <t>TSDW12
-Validate my profile -&gt;  Logout</t>
+Valdiate the HomePage</t>
   </si>
   <si>
     <t>TSDW13
-Validate the Search Functionality</t>
+Validate the GUI</t>
   </si>
   <si>
     <t>TSDW14
-Validate the shopping Cart Functionality</t>
-  </si>
-  <si>
-    <t>TSDW15
-Validate the add to wishlist Functionality</t>
-  </si>
-  <si>
-    <t>TSDW16
-Valdiate the HomePage</t>
-  </si>
-  <si>
-    <t>TSDW17
-Validate the GUI</t>
-  </si>
-  <si>
-    <t>TSDW18
 Validate the Navigation and Links</t>
   </si>
   <si>
-    <t>TestScenario_DemoWebShop.docx</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Creating the Testcases</t>
-  </si>
-  <si>
-    <t>TCR01</t>
-  </si>
-  <si>
-    <t>TCR02</t>
-  </si>
-  <si>
-    <t>TCR03</t>
-  </si>
-  <si>
-    <t>TCR04</t>
-  </si>
-  <si>
-    <t>TCR05</t>
-  </si>
-  <si>
-    <t>TCR06</t>
-  </si>
-  <si>
-    <t>TCR07</t>
-  </si>
-  <si>
-    <t>TCR08</t>
-  </si>
-  <si>
-    <t>TCR09</t>
-  </si>
-  <si>
-    <t>TCR10</t>
-  </si>
-  <si>
-    <t>TCR11</t>
-  </si>
-  <si>
-    <t>TCR12</t>
-  </si>
-  <si>
-    <t>Validate Registration Page Functionality by entering all Values (Valid)</t>
-  </si>
-  <si>
-    <t>Validate Registration Page Functionality by entering all Values (inValid)</t>
-  </si>
-  <si>
-    <t>Validate the UI/ Usabilty and Alignment of the page</t>
-  </si>
-  <si>
-    <t>Validate the Tab Menus , footer menus &amp; Side Menus Navigation</t>
-  </si>
-  <si>
-    <t>Validate the password Validations (check with Blank Space )</t>
-  </si>
-  <si>
-    <t>Validate the password Validations (check Confirm password )</t>
-  </si>
-  <si>
-    <t>Validate the Gender Field</t>
-  </si>
-  <si>
-    <t>Validate registering with existing  EmailID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>validate the spelling mistakes on the page</t>
-  </si>
-  <si>
-    <t>Validate Order of tab (KeyBoard Actions)</t>
-  </si>
-  <si>
-    <t>Validate with Invalid EmailID</t>
-  </si>
-  <si>
-    <t>Validate the Navigation of Registeration from other pages and Links</t>
-  </si>
-  <si>
-    <t>Validate the password Validations (check with Blank confirm password )</t>
-  </si>
-  <si>
-    <t>TCR13</t>
-  </si>
-  <si>
-    <t>TCR14</t>
-  </si>
-  <si>
-    <t>TCR15</t>
-  </si>
-  <si>
-    <t>TCR16</t>
-  </si>
-  <si>
-    <t>TCR17</t>
-  </si>
-  <si>
-    <t>TCR18</t>
-  </si>
-  <si>
-    <t>TCR19</t>
-  </si>
-  <si>
-    <t>Validate Registration Page Functionality by entering only Mandatory Values</t>
-  </si>
-  <si>
-    <t>Validate Registration Page Functionality by entering only blank Spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Email Sent after Sucessful Registration </t>
-  </si>
-  <si>
-    <t>Validate with valid EmailID</t>
-  </si>
-  <si>
-    <t>Verify the Error Messages for Grammatical and Spelling Mistakes)</t>
-  </si>
-  <si>
-    <t>Validate the BreadCrumbs for Register Page</t>
-  </si>
-  <si>
-    <t>Validate the PageName for Register Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for the loading time of Register Page </t>
-  </si>
-  <si>
-    <t>TCR20</t>
-  </si>
-  <si>
-    <t>TCR21</t>
-  </si>
-  <si>
-    <t>TCR22</t>
-  </si>
-  <si>
-    <t>TCL01</t>
-  </si>
-  <si>
-    <t>TCL02</t>
-  </si>
-  <si>
-    <t>TCL03</t>
-  </si>
-  <si>
-    <t>TCL04</t>
-  </si>
-  <si>
-    <t>TCL05</t>
-  </si>
-  <si>
-    <t>TCL06</t>
-  </si>
-  <si>
-    <t>TCL07</t>
-  </si>
-  <si>
-    <t>TCL08</t>
-  </si>
-  <si>
-    <t>TCL09</t>
-  </si>
-  <si>
-    <t>TCL10</t>
-  </si>
-  <si>
-    <t>TCL11</t>
-  </si>
-  <si>
-    <t>TCL12</t>
-  </si>
-  <si>
-    <t>TCL13</t>
-  </si>
-  <si>
-    <t>TCL14</t>
-  </si>
-  <si>
-    <t>TCL15</t>
-  </si>
-  <si>
-    <t>TCL16</t>
-  </si>
-  <si>
-    <t>TCL17</t>
-  </si>
-  <si>
-    <t>TCL18</t>
-  </si>
-  <si>
-    <t>TCL19</t>
-  </si>
-  <si>
-    <t>TCL20</t>
-  </si>
-  <si>
-    <t>Validate Login Using Valid UserName and Password</t>
-  </si>
-  <si>
-    <t>Validate Login Using InValid UserName and Password</t>
-  </si>
-  <si>
-    <t>Validate Login Using Blank UserName and Password</t>
-  </si>
-  <si>
-    <t>Validate Password is hided using asteriks</t>
-  </si>
-  <si>
-    <t>Validate the working of Remember Me Functionality</t>
-  </si>
-  <si>
-    <t>Validate the Navigation of Login Page from other pages and Links</t>
-  </si>
-  <si>
-    <t>Validate the BreadCrumbs for Login Page</t>
-  </si>
-  <si>
-    <t>Validate the PageName for Login Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for the loading time of Login Page </t>
-  </si>
-  <si>
-    <t>Check for the Login time(once Login Button is Submitted)</t>
-  </si>
-  <si>
-    <t>Check for the Submit time(once registeration Button is submitted)</t>
-  </si>
-  <si>
-    <t>Validate Login Using InValid UserName and valid Password</t>
-  </si>
-  <si>
-    <t>Validate Login Using valid UserName and invalid Password</t>
-  </si>
-  <si>
-    <t>Validate username for wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario ID </t>
-  </si>
-  <si>
-    <t>Reference /Usecase / Functionality</t>
-  </si>
-  <si>
-    <t>Scenario Description</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Number of TestCases</t>
-  </si>
-  <si>
-    <t>TSDW01</t>
-  </si>
-  <si>
-    <t>1. Registration</t>
-  </si>
-  <si>
-    <t>Validate the Registration functionality</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>TSDW02</t>
-  </si>
-  <si>
-    <t>2. Login</t>
-  </si>
-  <si>
-    <t>Validate the Login Functionality</t>
-  </si>
-  <si>
-    <t>TSDW03</t>
-  </si>
-  <si>
-    <t>Validate the working of Forget Password</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>TSDW04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. My Account </t>
-  </si>
-  <si>
-    <t>Validate the my profile Page - GUI</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>TSDW05</t>
-  </si>
-  <si>
-    <t>Validate the my profile Page-Landing page</t>
-  </si>
-  <si>
-    <t>TSDW06</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Customer Info</t>
-  </si>
-  <si>
-    <t>TSDW07</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Addresses Functionality</t>
-  </si>
-  <si>
-    <t>TSDW08</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Downloadable Products</t>
-  </si>
-  <si>
-    <t>TSDW09</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Back in Stock Subscription</t>
-  </si>
-  <si>
-    <t>TSDW10</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Reward Points</t>
-  </si>
-  <si>
-    <t>TSDW11</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Change Password</t>
-  </si>
-  <si>
-    <t>TSDW12</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Logout</t>
-  </si>
-  <si>
-    <t>TSDW13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Search Functionality </t>
-  </si>
-  <si>
-    <t>Validate the Search Functionality</t>
-  </si>
-  <si>
-    <t>TSDW14</t>
-  </si>
-  <si>
-    <t>5. Shopping Cart</t>
-  </si>
-  <si>
-    <t>Validate the shopping Cart Functionality</t>
-  </si>
-  <si>
-    <t>TSDW15</t>
-  </si>
-  <si>
-    <t>6. Wishlist</t>
-  </si>
-  <si>
-    <t>Validate the add to wishlist Functionality</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>TSDW16</t>
-  </si>
-  <si>
-    <t>7. Usability Landing Page</t>
-  </si>
-  <si>
-    <t>Valdiate the HomePage</t>
-  </si>
-  <si>
-    <t>TSDW17</t>
-  </si>
-  <si>
-    <t>Validate the GUI</t>
-  </si>
-  <si>
-    <t>TSDW18</t>
-  </si>
-  <si>
-    <t>Validate the Navigation and Links</t>
-  </si>
-  <si>
-    <t>TCFP01</t>
-  </si>
-  <si>
-    <t>TCFP02</t>
-  </si>
-  <si>
-    <t>TCFP03</t>
-  </si>
-  <si>
-    <t>TCFP04</t>
-  </si>
-  <si>
-    <t>TCFP05</t>
-  </si>
-  <si>
-    <t>TCFP06</t>
-  </si>
-  <si>
-    <t>TCFP07</t>
-  </si>
-  <si>
-    <t>TCFP08</t>
-  </si>
-  <si>
-    <t>TCFP09</t>
-  </si>
-  <si>
-    <t>TCFP10</t>
-  </si>
-  <si>
-    <t>TCFP11</t>
-  </si>
-  <si>
-    <t>TCFP12</t>
-  </si>
-  <si>
-    <t>TCFP13</t>
-  </si>
-  <si>
-    <t>TCFP14</t>
-  </si>
-  <si>
-    <t>TCFP15</t>
-  </si>
-  <si>
-    <t>TCFP16</t>
-  </si>
-  <si>
-    <t>TCFP17</t>
-  </si>
-  <si>
-    <t>TCFP18</t>
-  </si>
-  <si>
-    <t>TCFP19</t>
-  </si>
-  <si>
-    <t>TCFP20</t>
+    <t>TCCP01</t>
+  </si>
+  <si>
+    <t>TCCP02</t>
+  </si>
+  <si>
+    <t>TCCP03</t>
+  </si>
+  <si>
+    <t>TCCP04</t>
+  </si>
+  <si>
+    <t>TCCP05</t>
+  </si>
+  <si>
+    <t>TCCP06</t>
+  </si>
+  <si>
+    <t>TCCP07</t>
+  </si>
+  <si>
+    <t>TCCP08</t>
+  </si>
+  <si>
+    <t>TCCP09</t>
+  </si>
+  <si>
+    <t>TCCP10</t>
+  </si>
+  <si>
+    <t>TCCP11</t>
+  </si>
+  <si>
+    <t>TCCP12</t>
+  </si>
+  <si>
+    <t>TCCP13</t>
+  </si>
+  <si>
+    <t>TCCP14</t>
+  </si>
+  <si>
+    <t>TCCP15</t>
+  </si>
+  <si>
+    <t>Validate the change password functionalit with valid old password</t>
+  </si>
+  <si>
+    <t>Validate the change password functionalit with invalid old password including blank space</t>
+  </si>
+  <si>
+    <t>Validate by valid new and confirm password</t>
+  </si>
+  <si>
+    <t>Validate by invalid new and confirm password including blank spaces</t>
+  </si>
+  <si>
+    <t>Validate Change password using different password and confirm password</t>
+  </si>
+  <si>
+    <t>Validate the PageName for MyProfile  Page</t>
+  </si>
+  <si>
+    <t>Validate the spelling mistakes on the page</t>
+  </si>
+  <si>
+    <t>TCLO01</t>
+  </si>
+  <si>
+    <t>TCLO02</t>
+  </si>
+  <si>
+    <t>TCLO03</t>
+  </si>
+  <si>
+    <t>TCLO04</t>
+  </si>
+  <si>
+    <t>TCLO05</t>
+  </si>
+  <si>
+    <t>TCLO06</t>
+  </si>
+  <si>
+    <t>TCLO07</t>
+  </si>
+  <si>
+    <t>TCLO08</t>
+  </si>
+  <si>
+    <t>TCLO09</t>
+  </si>
+  <si>
+    <t>TCLO10</t>
+  </si>
+  <si>
+    <t>TCLO11</t>
+  </si>
+  <si>
+    <t>TCLO12</t>
+  </si>
+  <si>
+    <t>TCLO13</t>
+  </si>
+  <si>
+    <t>TCLO14</t>
+  </si>
+  <si>
+    <t>Check for the loading time MyProfile Submit (once Save Button is Submitted)</t>
+  </si>
+  <si>
+    <t>TCAD18</t>
+  </si>
+  <si>
+    <t>TCLO15</t>
+  </si>
+  <si>
+    <t>TCS01</t>
+  </si>
+  <si>
+    <t>TCS02</t>
+  </si>
+  <si>
+    <t>TCS03</t>
+  </si>
+  <si>
+    <t>TCS04</t>
+  </si>
+  <si>
+    <t>TCS05</t>
+  </si>
+  <si>
+    <t>TCS06</t>
+  </si>
+  <si>
+    <t>TCS07</t>
+  </si>
+  <si>
+    <t>TCS08</t>
+  </si>
+  <si>
+    <t>TCS09</t>
+  </si>
+  <si>
+    <t>TCS10</t>
+  </si>
+  <si>
+    <t>TCS11</t>
+  </si>
+  <si>
+    <t>TCS12</t>
+  </si>
+  <si>
+    <t>TCS13</t>
+  </si>
+  <si>
+    <t>TCS14</t>
+  </si>
+  <si>
+    <t>TCS15</t>
   </si>
 </sst>
 </file>
@@ -699,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -745,6 +1062,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C744D8-3D2A-4F3D-9E4C-A7E4C8AC2472}">
-  <dimension ref="A3:F29"/>
+  <dimension ref="A3:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1361,7 @@
     <col min="1" max="1" width="24.140625" style="9"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1050,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1092,7 +1415,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
         <v>0.1</v>
@@ -1101,7 +1424,7 @@
         <v>45718</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1120,33 +1443,33 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2">
         <v>22</v>
@@ -1154,16 +1477,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2">
         <v>20</v>
@@ -1171,245 +1494,801 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708FBA6A-5ABC-4708-966A-E07E982F3216}">
+  <dimension ref="A2:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="9"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1451,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1464,7 +2343,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
@@ -1507,13 +2386,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1526,13 +2405,13 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1545,13 +2424,13 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1564,13 +2443,13 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1583,13 +2462,13 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1602,13 +2481,13 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1621,13 +2500,13 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1640,13 +2519,13 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1659,13 +2538,13 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1678,13 +2557,13 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1697,13 +2576,13 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1716,17 +2595,17 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1737,13 +2616,13 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -1756,13 +2635,13 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1775,13 +2654,13 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -1794,13 +2673,13 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -1813,13 +2692,13 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -1832,13 +2711,13 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -1851,17 +2730,17 @@
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -1872,35 +2751,35 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1950,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1963,7 +2842,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
@@ -2006,13 +2885,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2025,13 +2904,13 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -2044,13 +2923,13 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -2063,13 +2942,13 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -2082,13 +2961,13 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2101,13 +2980,13 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2120,13 +2999,13 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2139,13 +3018,13 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -2158,13 +3037,13 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2177,13 +3056,13 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2196,13 +3075,13 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2215,17 +3094,17 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2236,13 +3115,13 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -2255,13 +3134,13 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2274,13 +3153,13 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2293,13 +3172,13 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -2312,13 +3191,13 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2331,35 +3210,35 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2372,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD8D9DE-E19D-45EB-9240-5B14F95BE07F}">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B29"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,7 +3297,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
@@ -2461,13 +3340,13 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2480,13 +3359,13 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -2499,13 +3378,13 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -2518,13 +3397,13 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -2537,13 +3416,13 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2556,13 +3435,13 @@
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2575,13 +3454,13 @@
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>108</v>
+      <c r="C16" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2594,13 +3473,13 @@
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -2613,13 +3492,13 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2632,13 +3511,13 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2651,13 +3530,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>63</v>
+      <c r="C20" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2670,17 +3549,17 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>78</v>
+      <c r="C21" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -2691,13 +3570,13 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -2710,13 +3589,13 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>55</v>
+      <c r="C23" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2727,16 +3606,9 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>56</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -2746,16 +3618,9 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>62</v>
-      </c>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -2765,16 +3630,9 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>111</v>
-      </c>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -2784,38 +3642,17 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>114</v>
-      </c>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2824,25 +3661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04BC874-EA73-4F91-B52B-5FE5A7491DD7}">
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="9"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2850,7 +3688,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2858,171 +3696,2049 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED3C19E-B204-4AF3-BEAA-200B8BBBD1F6}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>199</v>
+      </c>
       <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4423B7-4969-40BE-A287-E1A784FB5927}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="B16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E123878-BA2A-4194-A9E1-5B14200D08AE}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>250</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>253</v>
+      </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A1CDA-BF38-4A9A-9A0D-A7DE977A7FCA}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TestCase_DemoWebShop.xlsx
+++ b/TestCase_DemoWebShop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personals\TestingProjects\TricentisDemoWebShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B63384E-3B40-4C85-BB4B-6A7B13AD098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66B9A5F-1009-4325-99FB-57CC75E16E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Addresses" sheetId="9" r:id="rId7"/>
     <sheet name="ChangePassword" sheetId="10" r:id="rId8"/>
     <sheet name="LogOut" sheetId="11" r:id="rId9"/>
-    <sheet name="LogOut (2)" sheetId="12" r:id="rId10"/>
-    <sheet name="Template" sheetId="1" r:id="rId11"/>
+    <sheet name="SimpleSearch" sheetId="12" r:id="rId10"/>
+    <sheet name="ShoppingCart" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="306">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -450,55 +450,22 @@
     <t>TSDW10</t>
   </si>
   <si>
-    <t>TSDW11</t>
-  </si>
-  <si>
     <t>Validate my profile -&gt;  Change Password</t>
   </si>
   <si>
-    <t>TSDW12</t>
-  </si>
-  <si>
     <t>Validate my profile -&gt;  Logout</t>
   </si>
   <si>
-    <t>TSDW13</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Search Functionality </t>
   </si>
   <si>
     <t>Validate the Search Functionality</t>
   </si>
   <si>
-    <t>TSDW14</t>
-  </si>
-  <si>
     <t>5. Shopping Cart</t>
   </si>
   <si>
     <t>Validate the shopping Cart Functionality</t>
-  </si>
-  <si>
-    <t>6. Wishlist</t>
-  </si>
-  <si>
-    <t>Validate the add to wishlist Functionality</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>7. Usability Landing Page</t>
-  </si>
-  <si>
-    <t>Valdiate the HomePage</t>
-  </si>
-  <si>
-    <t>Validate the GUI</t>
-  </si>
-  <si>
-    <t>Validate the Navigation and Links</t>
   </si>
   <si>
     <t>TCFP01</t>
@@ -770,22 +737,6 @@
 Validate the shopping Cart Functionality</t>
   </si>
   <si>
-    <t>TSDW11
-Validate the add to wishlist Functionality</t>
-  </si>
-  <si>
-    <t>TSDW12
-Valdiate the HomePage</t>
-  </si>
-  <si>
-    <t>TSDW13
-Validate the GUI</t>
-  </si>
-  <si>
-    <t>TSDW14
-Validate the Navigation and Links</t>
-  </si>
-  <si>
     <t>TCCP01</t>
   </si>
   <si>
@@ -936,16 +887,100 @@
     <t>TCS11</t>
   </si>
   <si>
-    <t>TCS12</t>
-  </si>
-  <si>
-    <t>TCS13</t>
-  </si>
-  <si>
-    <t>TCS14</t>
-  </si>
-  <si>
-    <t>TCS15</t>
+    <t>validate the working of simple search</t>
+  </si>
+  <si>
+    <t>TCSH01</t>
+  </si>
+  <si>
+    <t>TCSH02</t>
+  </si>
+  <si>
+    <t>TCSH03</t>
+  </si>
+  <si>
+    <t>TCSH04</t>
+  </si>
+  <si>
+    <t>TCSH05</t>
+  </si>
+  <si>
+    <t>TCSH06</t>
+  </si>
+  <si>
+    <t>TCSH07</t>
+  </si>
+  <si>
+    <t>TCSH08</t>
+  </si>
+  <si>
+    <t>TCSH09</t>
+  </si>
+  <si>
+    <t>TCSH10</t>
+  </si>
+  <si>
+    <t>TCSH11</t>
+  </si>
+  <si>
+    <t>TCSH12</t>
+  </si>
+  <si>
+    <t>Validate the add to cart Button</t>
+  </si>
+  <si>
+    <t>Validate the Shopping Cart section</t>
+  </si>
+  <si>
+    <t>validate the checkout functionality</t>
+  </si>
+  <si>
+    <t>validate  the update shopping Cart functionality</t>
+  </si>
+  <si>
+    <t>validate the estimate shipping functionality</t>
+  </si>
+  <si>
+    <t>validate payment page</t>
+  </si>
+  <si>
+    <t>validate the order page</t>
+  </si>
+  <si>
+    <t>śśś</t>
+  </si>
+  <si>
+    <t>open https://demowebshop.tricentis.com/ in any browser
+Select the Register link from the top</t>
+  </si>
+  <si>
+    <t>Enter data for the fields marked with mandatory symbol only</t>
+  </si>
+  <si>
+    <t>FirstName: Alex
+Last Name:  John
+email:alex@gmail.com
+password: xyz
+confirm password : xyz</t>
+  </si>
+  <si>
+    <t>Should successfully Regsiter and go to the MyProfilePage</t>
+  </si>
+  <si>
+    <t>FirstName: &amp;(**(&amp;
+Last Name:  *(&amp;(
+email:kl
+password: 2
+confirm password : 2</t>
+  </si>
+  <si>
+    <t>Warning Message : Please enter valid data should be shown</t>
+  </si>
+  <si>
+    <t>Enter Valid data for all the fields</t>
+  </si>
+  <si>
+    <t>Enter invalid data for all the fields</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C744D8-3D2A-4F3D-9E4C-A7E4C8AC2472}">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -1563,7 +1598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>128</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>120</v>
@@ -1580,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>130</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>120</v>
@@ -1597,95 +1632,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1695,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708FBA6A-5ABC-4708-966A-E07E982F3216}">
-  <dimension ref="A2:K35"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,10 +1770,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1802,10 +1789,13 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1818,10 +1808,13 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1834,10 +1827,13 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -1850,10 +1846,13 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1866,10 +1865,13 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1882,10 +1884,13 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1898,10 +1903,13 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1914,10 +1922,13 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1930,10 +1941,13 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1946,10 +1960,13 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1960,13 +1977,9 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>236</v>
-      </c>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>48</v>
@@ -1978,13 +1991,9 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>236</v>
-      </c>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -1994,13 +2003,9 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>236</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2010,16 +2015,14 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>236</v>
-      </c>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17">
+        <v>2009</v>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2041,9 +2044,6 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -2053,56 +2053,17 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="18" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
-        <v>278</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2111,25 +2072,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E129250-A8C8-417C-862B-7AC691318C7A}">
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="9"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="18"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="24.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2137,7 +2099,7 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2145,7 +2107,7 @@
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2153,7 +2115,7 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2161,131 +2123,361 @@
       <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>282</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>283</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>287</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>288</v>
+      </c>
       <c r="B20" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
+        <v>2009</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2297,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F057CB25-2042-4878-A4C5-113B6428EA88}">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,42 +2542,42 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2394,17 +2586,25 @@
       <c r="C10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="D10" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2413,17 +2613,25 @@
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2432,17 +2640,25 @@
       <c r="C12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2451,17 +2667,21 @@
       <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="D13" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2470,17 +2690,19 @@
       <c r="C14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="D14" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2489,17 +2711,19 @@
       <c r="C15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="D15" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2508,17 +2732,19 @@
       <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2527,17 +2753,19 @@
       <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2546,17 +2774,19 @@
       <c r="C18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="D18" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2565,17 +2795,19 @@
       <c r="C19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="D19" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2584,17 +2816,19 @@
       <c r="C20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="D20" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2603,19 +2837,21 @@
       <c r="C21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -2624,17 +2860,19 @@
       <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2643,17 +2881,19 @@
       <c r="C23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="D23" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -2662,17 +2902,19 @@
       <c r="C24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="D24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2681,17 +2923,19 @@
       <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2700,17 +2944,19 @@
       <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="D26" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -2719,17 +2965,19 @@
       <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="D27" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -2738,19 +2986,21 @@
       <c r="C28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -2759,9 +3009,19 @@
       <c r="C29" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="D29" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2770,9 +3030,19 @@
       <c r="C30" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="D30" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2781,6 +3051,16 @@
       <c r="C31" s="13" t="s">
         <v>102</v>
       </c>
+      <c r="D31" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -3340,13 +3620,13 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -3359,13 +3639,13 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -3378,13 +3658,13 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -3397,13 +3677,13 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -3416,7 +3696,7 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -3435,7 +3715,7 @@
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -3454,13 +3734,13 @@
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -3473,7 +3753,7 @@
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
@@ -3492,7 +3772,7 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>20</v>
@@ -3511,7 +3791,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -3530,13 +3810,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -3549,13 +3829,13 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -3570,13 +3850,13 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -3589,13 +3869,13 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -3753,13 +4033,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -3772,13 +4052,13 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -3791,13 +4071,13 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -3810,13 +4090,13 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -3829,7 +4109,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -3848,7 +4128,7 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -3867,13 +4147,13 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -3886,7 +4166,7 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -3905,7 +4185,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -3924,7 +4204,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -3943,13 +4223,13 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -3962,13 +4242,13 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -3983,13 +4263,13 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -4002,13 +4282,13 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -4166,13 +4446,13 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4185,13 +4465,13 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4204,7 +4484,7 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>22</v>
@@ -4223,7 +4503,7 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>22</v>
@@ -4242,13 +4522,13 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -4261,7 +4541,7 @@
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>22</v>
@@ -4280,7 +4560,7 @@
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>22</v>
@@ -4299,7 +4579,7 @@
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>22</v>
@@ -4318,13 +4598,13 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -4337,13 +4617,13 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -4356,13 +4636,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -4558,13 +4838,13 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4577,13 +4857,13 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4596,13 +4876,13 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -4615,13 +4895,13 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -4634,13 +4914,13 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -4653,13 +4933,13 @@
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -4672,13 +4952,13 @@
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -4691,13 +4971,13 @@
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -4710,10 +4990,10 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>50</v>
@@ -4729,10 +5009,10 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>65</v>
@@ -4748,13 +5028,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -4767,10 +5047,10 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>42</v>
@@ -4788,10 +5068,10 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>43</v>
@@ -4807,10 +5087,10 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>49</v>
@@ -4826,13 +5106,13 @@
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -4845,13 +5125,13 @@
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -4864,13 +5144,13 @@
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -4883,13 +5163,13 @@
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4999,13 +5279,13 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5018,13 +5298,13 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -5037,13 +5317,13 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5056,13 +5336,13 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -5075,13 +5355,13 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -5094,10 +5374,10 @@
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>50</v>
@@ -5113,10 +5393,10 @@
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>65</v>
@@ -5132,13 +5412,13 @@
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -5151,10 +5431,10 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>42</v>
@@ -5170,10 +5450,10 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>43</v>
@@ -5189,13 +5469,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -5208,13 +5488,13 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -5229,13 +5509,13 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -5248,13 +5528,13 @@
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -5267,13 +5547,13 @@
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -5419,13 +5699,13 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5438,13 +5718,13 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -5457,13 +5737,13 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -5476,13 +5756,13 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -5495,13 +5775,13 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -5514,10 +5794,10 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>50</v>
@@ -5533,10 +5813,10 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>65</v>
@@ -5552,13 +5832,13 @@
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -5571,10 +5851,10 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>42</v>
@@ -5590,10 +5870,10 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>43</v>
@@ -5609,13 +5889,13 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -5628,13 +5908,13 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -5649,13 +5929,13 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -5668,13 +5948,13 @@
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -5687,13 +5967,13 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
